--- a/Combined_datasets/7 OM Dataset/Refined/Results/ Exp 9 Jan23 - Regular Dataset  - Tokenization 4 .xlsx
+++ b/Combined_datasets/7 OM Dataset/Refined/Results/ Exp 9 Jan23 - Regular Dataset  - Tokenization 4 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/7 OM Dataset/Refined/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29017E7F-0FC9-504C-BB54-33B7A98CE372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB763788-A7AA-A847-90C4-3981730F214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="1460" windowWidth="27240" windowHeight="15400" xr2:uid="{2CE11C35-6353-D34A-BC2C-8ADC3AEC3A0E}"/>
+    <workbookView xWindow="4360" yWindow="800" windowWidth="27240" windowHeight="15400" xr2:uid="{2CE11C35-6353-D34A-BC2C-8ADC3AEC3A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7389C-7B57-9042-BBA8-F5B59DB8B8DD}">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
